--- a/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-9.821135098622335</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-17.74092232135291</v>
+        <v>-17.7409223213529</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-8.948208980374456</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.92517731233139</v>
+        <v>-14.97691339372929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.38931286075361</v>
+        <v>-12.55132543316426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.15963582629654</v>
+        <v>-20.28035178173308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.44896503094391</v>
+        <v>-14.17225312772216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.73572858780816</v>
+        <v>-15.45752734842833</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-22.71822141868267</v>
+        <v>-22.24690028575767</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.91738783402832</v>
+        <v>-12.69447439869183</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-12.49924731050945</v>
+        <v>-12.34230473230347</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.41321971928667</v>
+        <v>-19.67143549685052</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.365922594643854</v>
+        <v>-3.294746098272832</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.316304763246243</v>
+        <v>-1.191758667289723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.712352913927138</v>
+        <v>-8.905079786562153</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.367180364771107</v>
+        <v>-3.444747097863335</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.696957348043424</v>
+        <v>-4.356526488053528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-13.0644280713402</v>
+        <v>-12.03593862320901</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-4.7896863971966</v>
+        <v>-4.837147039705847</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.404789219510368</v>
+        <v>-4.273427705866822</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-12.09097236129201</v>
+        <v>-12.21822173621092</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.2745081678262745</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4958722218031589</v>
+        <v>-0.4958722218031588</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2459070894572385</v>
@@ -769,7 +769,7 @@
         <v>-0.2338614659012781</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4382496080332067</v>
+        <v>-0.4382496080332068</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3671577123842839</v>
+        <v>-0.3736820490726979</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3390676564516584</v>
+        <v>-0.3181532131896599</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4994997199648508</v>
+        <v>-0.4943864994771945</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3725432796190454</v>
+        <v>-0.3690138656958075</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3992626141255458</v>
+        <v>-0.3936763012974254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5805466088199674</v>
+        <v>-0.5709451550361347</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3382150840185546</v>
+        <v>-0.3318950350777258</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3242842293763911</v>
+        <v>-0.3260060543696987</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.511182273014393</v>
+        <v>-0.5103445012940758</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.09789870898617758</v>
+        <v>-0.0942052830225982</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03811000999107293</v>
+        <v>-0.03384817439474109</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.253128853318313</v>
+        <v>-0.251909192842176</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1022924788253539</v>
+        <v>-0.1060309457741667</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1365149182641992</v>
+        <v>-0.1274919213668278</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3923738817725875</v>
+        <v>-0.3685583253363938</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1421753957666374</v>
+        <v>-0.1418262710590806</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.128639362816901</v>
+        <v>-0.1255525330759942</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3546044301180067</v>
+        <v>-0.3533915564959191</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.677244513692351</v>
+        <v>-2.685262051509806</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.702066356408222</v>
+        <v>-8.636582449847413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.68213643290161</v>
+        <v>-17.48775707717887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.301293291796479</v>
+        <v>-7.184330975101195</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.85307437558531</v>
+        <v>-10.97674113104237</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.03698246081705</v>
+        <v>-19.05476579686903</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.934351149505543</v>
+        <v>-4.208148485203298</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.334963673240004</v>
+        <v>-8.3559491759192</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.10304362737869</v>
+        <v>-17.51963878646673</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.244260263589312</v>
+        <v>7.122692809059374</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9966674096363355</v>
+        <v>0.6892424171870842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-8.59725592993564</v>
+        <v>-9.234235783220793</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.98372510490048</v>
+        <v>1.775851554859415</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.029210738256034</v>
+        <v>-1.685320324160279</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-11.22989613081872</v>
+        <v>-11.33521034130189</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.856998093003869</v>
+        <v>2.905758326245813</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.77830420043672</v>
+        <v>-1.881987559691515</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-11.27530656557317</v>
+        <v>-11.43821981527909</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1261238429020591</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.44693921618881</v>
+        <v>-0.4469392161888098</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.08022373628461102</v>
@@ -974,7 +974,7 @@
         <v>-0.19044297266844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.4638025426844546</v>
+        <v>-0.4638025426844548</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01476652085171217</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.112075693110157</v>
+        <v>-0.08204351943886955</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2710700218055767</v>
+        <v>-0.2656873689694919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5451036016281858</v>
+        <v>-0.5394965747327738</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2073910470257645</v>
+        <v>-0.2013074017435307</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3034977140096961</v>
+        <v>-0.3143878846385524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5430506006185161</v>
+        <v>-0.5411417155299034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1203419294932357</v>
+        <v>-0.1243715634608676</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2514686745643771</v>
+        <v>-0.2501595713446231</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5174737250885477</v>
+        <v>-0.5271212961726642</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2294613867489666</v>
+        <v>0.2596953660014822</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04005441269962271</v>
+        <v>0.02528984619009527</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3054892926399558</v>
+        <v>-0.3293950793190861</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06609825214689952</v>
+        <v>0.05901829483850669</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.06439388640378152</v>
+        <v>-0.05431275370441449</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3761994066348805</v>
+        <v>-0.3793997650349946</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09504556777440215</v>
+        <v>0.09665907489955793</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06138247620435695</v>
+        <v>-0.06390295133221303</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.379961772451232</v>
+        <v>-0.3886547380354337</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.5201317477446288</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-9.812178011206901</v>
+        <v>-9.812178011206898</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-3.355700730377525</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.3044452195599</v>
+        <v>-10.46132408176294</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.41306598867369</v>
+        <v>-8.117796243655512</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-17.08525219354518</v>
+        <v>-17.20646287461867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.394401398132318</v>
+        <v>-7.534973779300732</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.748340751197968</v>
+        <v>-5.830223145493737</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.60475751886979</v>
+        <v>-14.63402811081952</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.330325526845413</v>
+        <v>-6.745674837624483</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.517251916511224</v>
+        <v>-5.141055693458356</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-14.19844580136907</v>
+        <v>-14.36555612785996</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.067199895026277</v>
+        <v>1.096840186218928</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.605855246888782</v>
+        <v>3.835031202342277</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.604305636041994</v>
+        <v>-5.722417316147931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.399874657676444</v>
+        <v>2.885034359779327</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.753922441283205</v>
+        <v>4.747816121288968</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-5.15646356246507</v>
+        <v>-5.242048965765017</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3237320049504251</v>
+        <v>0.6557011278926336</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.492406685610773</v>
+        <v>2.707669954980704</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-7.268265489772846</v>
+        <v>-6.904696427324517</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.01602118835749035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.3022364099027334</v>
+        <v>-0.3022364099027333</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.09895520713209538</v>
@@ -1197,7 +1197,7 @@
         <v>-0.03822708883936844</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3141387285207272</v>
+        <v>-0.3141387285207273</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2698253696056907</v>
+        <v>-0.2681391187914677</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2175453057306534</v>
+        <v>-0.2138278397662704</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4465758746373256</v>
+        <v>-0.4486254884967413</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2090508036653247</v>
+        <v>-0.2179005055668628</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1660349481593485</v>
+        <v>-0.1693885030075488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.414363613822789</v>
+        <v>-0.4163228897097076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2057115963620356</v>
+        <v>-0.1896374497024124</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1567370042536861</v>
+        <v>-0.1432318158434578</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3936737280946611</v>
+        <v>-0.3970161988305346</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.03353314827823951</v>
+        <v>0.03575887792625226</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.116708366078723</v>
+        <v>0.1202451805373372</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1768290385843239</v>
+        <v>-0.1748538315832767</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1141064150353206</v>
+        <v>0.09488714212617565</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1582276461572094</v>
+        <v>0.157451477534237</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1763020324594348</v>
+        <v>-0.1726895556771116</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.009972866415845169</v>
+        <v>0.02127089371222268</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07749406481246029</v>
+        <v>0.08384776929734641</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2259153852763987</v>
+        <v>-0.2158976822046052</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-5.383354073423119</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-12.64979761269843</v>
+        <v>-12.64979761269842</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.163105933000937</v>
+        <v>-3.323389437336625</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.290573915898321</v>
+        <v>-9.058947148981709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.16463738926485</v>
+        <v>-17.12425362211405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.957598933400321</v>
+        <v>-4.922992614675446</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.21302934149931</v>
+        <v>-10.00482848375128</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-16.61609077704222</v>
+        <v>-16.19105682229324</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.959922819247219</v>
+        <v>-2.715290872502271</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.643713458224948</v>
+        <v>-8.528994079038696</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.36997459504711</v>
+        <v>-15.29415830994003</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.580448938272395</v>
+        <v>5.971554879663101</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2526875991410373</v>
+        <v>-0.2977344082080622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.583130704442626</v>
+        <v>-8.720043411469385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.432950586404056</v>
+        <v>3.504035500059552</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.812920605404501</v>
+        <v>-1.437151568570763</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-9.370999900270101</v>
+        <v>-8.609535210247488</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.463842621874263</v>
+        <v>3.622012072633708</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.367222973816277</v>
+        <v>-2.675721390482997</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-9.759633192114732</v>
+        <v>-9.813214824385099</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1901354252696541</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4467799471967649</v>
+        <v>-0.4467799471967648</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1056452788083813</v>
+        <v>-0.1117337332551591</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3032965224482446</v>
+        <v>-0.3029576912691269</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5646285813248088</v>
+        <v>-0.5646592142506998</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.160087672919024</v>
+        <v>-0.158564109911686</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3286940043682466</v>
+        <v>-0.3376162878947214</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5262017121077271</v>
+        <v>-0.523224362517112</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1007977404906763</v>
+        <v>-0.09295697542686594</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2889895773976972</v>
+        <v>-0.2833741165800009</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5124745066178281</v>
+        <v>-0.5123173018927611</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2192729171740093</v>
+        <v>0.2291840062235703</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.003516190648160743</v>
+        <v>-0.01477557179972934</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.333723489291081</v>
+        <v>-0.327943864031836</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1323487326043711</v>
+        <v>0.1325483062827321</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06763608710028778</v>
+        <v>-0.05513927391625001</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3451183368845273</v>
+        <v>-0.3304884498857397</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1299470439270564</v>
+        <v>0.1356479083603969</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09107287577153195</v>
+        <v>-0.09817408748128618</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.363834891757724</v>
+        <v>-0.3689288745230311</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.431451446416103</v>
+        <v>-4.531050066121172</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.884358817278627</v>
+        <v>-7.143879530467859</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.14520623956049</v>
+        <v>-15.55121199031944</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.570885295087091</v>
+        <v>-5.419934301786173</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.337218766390016</v>
+        <v>-8.284793588878841</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-16.03940418171156</v>
+        <v>-15.809237566063</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.396070481017814</v>
+        <v>-4.457458067038879</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.884174492790805</v>
+        <v>-7.097916987874162</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.87264625708271</v>
+        <v>-14.95466207332029</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6532208921803567</v>
+        <v>0.6490644792560258</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.803086545952221</v>
+        <v>-1.885000746954974</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.57105947534602</v>
+        <v>-10.56367443759965</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.6782223916812284</v>
+        <v>-0.7699916771361813</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.261033003698833</v>
+        <v>-3.339857623187615</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-11.64745283694483</v>
+        <v>-11.76281988121793</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.8348654801107876</v>
+        <v>-0.8297859127447724</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.319033760082072</v>
+        <v>-3.417472048050871</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.65477535053236</v>
+        <v>-11.69337366496028</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.1598316115807006</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4159531558961403</v>
+        <v>-0.4159531558961404</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1323514682837519</v>
+        <v>-0.1368516135918759</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2090655836877843</v>
+        <v>-0.2162627120933878</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4539994970476093</v>
+        <v>-0.462545440489567</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1678656987850559</v>
+        <v>-0.1648117602313452</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.247320616490924</v>
+        <v>-0.2495670769345713</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4747241512812932</v>
+        <v>-0.4737464253781603</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.132706369114582</v>
+        <v>-0.133745954253982</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2085361489047612</v>
+        <v>-0.2130528404974925</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.451151344229806</v>
+        <v>-0.4536850077575258</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02120507451889574</v>
+        <v>0.02167402135809042</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06125592089980567</v>
+        <v>-0.06163309620806892</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3382795009391822</v>
+        <v>-0.3423307704972495</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.02323923760511419</v>
+        <v>-0.0273170683200047</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1039177327365594</v>
+        <v>-0.1090918992318761</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3774862900978021</v>
+        <v>-0.3817588881797879</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.02695796223883939</v>
+        <v>-0.02667616597600722</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1067899962718363</v>
+        <v>-0.1095009070259526</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3733014111305347</v>
+        <v>-0.3754570271018874</v>
       </c>
     </row>
     <row r="34">
